--- a/zoomdata.xlsx
+++ b/zoomdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMCB-PC\Desktop\rdir\Projects\HDX\AIDR_text_Analysis\leaflet-shiny\AIDRv4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8438E9-1A07-4770-8E94-E5A38E70F780}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C88FB7E-104E-464F-A046-CD6F2B75148E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{45EB60D0-8EDF-41BB-9136-CFF318109EEA}"/>
+    <workbookView xWindow="8130" yWindow="4065" windowWidth="14400" windowHeight="7613" xr2:uid="{45EB60D0-8EDF-41BB-9136-CFF318109EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
@@ -1522,6 +1516,12 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>centlong</t>
+  </si>
+  <si>
+    <t>centlat</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G222" sqref="G222"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1886,24 +1886,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="D1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B2">
         <v>15.454166000000001</v>
@@ -1915,12 +1915,12 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>42.546244999999999</v>
@@ -1932,12 +1932,12 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>23.424075999999999</v>
@@ -1949,12 +1949,12 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>33.939109999999999</v>
@@ -1966,12 +1966,12 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>17.060815999999999</v>
@@ -1983,12 +1983,12 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>18.220554</v>
@@ -2000,12 +2000,12 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>41.153331999999999</v>
@@ -2017,12 +2017,12 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>40.069099000000001</v>
@@ -2034,12 +2034,12 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>12.226079</v>
@@ -2051,12 +2051,12 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>-11.202692000000001</v>
@@ -2068,12 +2068,12 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>-75.250973000000002</v>
@@ -2085,12 +2085,12 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>-38.416097000000001</v>
@@ -2102,12 +2102,12 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>-14.270972</v>
@@ -2119,12 +2119,12 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>47.516230999999998</v>
@@ -2136,12 +2136,12 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>-25.274398000000001</v>
@@ -2153,12 +2153,12 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>12.52111</v>
@@ -2170,12 +2170,12 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>40.143104999999998</v>
@@ -2187,12 +2187,12 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>43.915886</v>
@@ -2204,12 +2204,12 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>13.193887</v>
@@ -2221,12 +2221,12 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>23.684994</v>
@@ -2238,12 +2238,12 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>50.503886999999999</v>
@@ -2255,12 +2255,12 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>12.238333000000001</v>
@@ -2272,12 +2272,12 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>42.733882999999999</v>
@@ -2289,12 +2289,12 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>25.930413999999999</v>
@@ -2306,12 +2306,12 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>-3.3730560000000001</v>
@@ -2323,12 +2323,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>9.3076899999999991</v>
@@ -2340,12 +2340,12 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>32.321384000000002</v>
@@ -2357,12 +2357,12 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>4.5352769999999998</v>
@@ -2374,12 +2374,12 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>-16.290154000000001</v>
@@ -2391,12 +2391,12 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>-14.235004</v>
@@ -2408,12 +2408,12 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>25.034279999999999</v>
@@ -2425,12 +2425,12 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33">
         <v>27.514161999999999</v>
@@ -2442,12 +2442,12 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>-54.423198999999997</v>
@@ -2459,12 +2459,12 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>-22.328474</v>
@@ -2476,12 +2476,12 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>53.709806999999998</v>
@@ -2493,12 +2493,12 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>17.189876999999999</v>
@@ -2510,12 +2510,12 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>56.130366000000002</v>
@@ -2527,12 +2527,12 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>-12.164165000000001</v>
@@ -2544,12 +2544,12 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>-4.0383329999999997</v>
@@ -2561,12 +2561,12 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41">
         <v>6.6111110000000002</v>
@@ -2578,12 +2578,12 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>-0.228021</v>
@@ -2595,12 +2595,12 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>46.818187999999999</v>
@@ -2612,12 +2612,12 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>7.5399890000000003</v>
@@ -2629,12 +2629,12 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>-21.236736000000001</v>
@@ -2646,12 +2646,12 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>-35.675147000000003</v>
@@ -2663,12 +2663,12 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47">
         <v>7.3697220000000003</v>
@@ -2680,12 +2680,12 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>35.861660000000001</v>
@@ -2697,12 +2697,12 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49">
         <v>4.5708679999999999</v>
@@ -2714,12 +2714,12 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>9.7489170000000005</v>
@@ -2731,12 +2731,12 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51">
         <v>21.521757000000001</v>
@@ -2748,12 +2748,12 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52">
         <v>16.002082000000001</v>
@@ -2765,12 +2765,12 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>-10.447525000000001</v>
@@ -2782,12 +2782,12 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54">
         <v>35.126412999999999</v>
@@ -2799,12 +2799,12 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55">
         <v>49.817492000000001</v>
@@ -2816,12 +2816,12 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>51.165691000000002</v>
@@ -2833,12 +2833,12 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57">
         <v>11.825138000000001</v>
@@ -2850,12 +2850,12 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58">
         <v>56.263919999999999</v>
@@ -2867,12 +2867,12 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>15.414999</v>
@@ -2884,12 +2884,12 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60">
         <v>18.735693000000001</v>
@@ -2901,12 +2901,12 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61">
         <v>28.033885999999999</v>
@@ -2918,12 +2918,12 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62">
         <v>-1.8312390000000001</v>
@@ -2935,12 +2935,12 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63">
         <v>58.595272000000001</v>
@@ -2952,12 +2952,12 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64">
         <v>26.820553</v>
@@ -2969,12 +2969,12 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65">
         <v>24.215527000000002</v>
@@ -2986,12 +2986,12 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66">
         <v>15.179384000000001</v>
@@ -3003,12 +3003,12 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>40.463667000000001</v>
@@ -3020,12 +3020,12 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68">
         <v>9.1449999999999996</v>
@@ -3037,12 +3037,12 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69">
         <v>61.924109999999999</v>
@@ -3054,12 +3054,12 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <v>-16.578192999999999</v>
@@ -3071,12 +3071,12 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71">
         <v>-51.796253</v>
@@ -3088,12 +3088,12 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B72">
         <v>7.425554</v>
@@ -3105,12 +3105,12 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73">
         <v>61.892634999999999</v>
@@ -3122,12 +3122,12 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>46.227637999999999</v>
@@ -3139,12 +3139,12 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B75">
         <v>-0.80368899999999999</v>
@@ -3156,12 +3156,12 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76">
         <v>55.378050999999999</v>
@@ -3173,12 +3173,12 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B77">
         <v>12.262776000000001</v>
@@ -3190,12 +3190,12 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78">
         <v>42.315407</v>
@@ -3207,12 +3207,12 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B79">
         <v>3.9338890000000002</v>
@@ -3224,12 +3224,12 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80">
         <v>49.465691</v>
@@ -3241,12 +3241,12 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81">
         <v>7.9465269999999997</v>
@@ -3258,12 +3258,12 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B82">
         <v>36.137740999999998</v>
@@ -3275,12 +3275,12 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B83">
         <v>71.706935999999999</v>
@@ -3292,12 +3292,12 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84">
         <v>13.443182</v>
@@ -3309,12 +3309,12 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B85">
         <v>9.9455869999999997</v>
@@ -3326,12 +3326,12 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86">
         <v>16.995971000000001</v>
@@ -3343,12 +3343,12 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B87">
         <v>1.650801</v>
@@ -3360,12 +3360,12 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B88">
         <v>39.074207999999999</v>
@@ -3377,12 +3377,12 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B89">
         <v>-54.429578999999997</v>
@@ -3394,12 +3394,12 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90">
         <v>15.783471</v>
@@ -3411,12 +3411,12 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B91">
         <v>13.444304000000001</v>
@@ -3428,12 +3428,12 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92">
         <v>11.803749</v>
@@ -3445,12 +3445,12 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93">
         <v>4.8604159999999998</v>
@@ -3462,12 +3462,12 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B94">
         <v>31.354676000000001</v>
@@ -3479,12 +3479,12 @@
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B95">
         <v>22.396428</v>
@@ -3496,12 +3496,12 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B96">
         <v>-53.081809999999997</v>
@@ -3513,12 +3513,12 @@
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B97">
         <v>15.199999</v>
@@ -3530,12 +3530,12 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B98">
         <v>45.1</v>
@@ -3547,12 +3547,12 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B99">
         <v>18.971187</v>
@@ -3564,12 +3564,12 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B100">
         <v>47.162494000000002</v>
@@ -3581,12 +3581,12 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B101">
         <v>-0.78927499999999995</v>
@@ -3598,12 +3598,12 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B102">
         <v>53.412909999999997</v>
@@ -3615,12 +3615,12 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <v>31.046050999999999</v>
@@ -3632,12 +3632,12 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B104">
         <v>54.236106999999997</v>
@@ -3649,12 +3649,12 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B105">
         <v>20.593684</v>
@@ -3666,12 +3666,12 @@
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B106">
         <v>-6.3431940000000004</v>
@@ -3683,12 +3683,12 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B107">
         <v>33.223191</v>
@@ -3700,12 +3700,12 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B108">
         <v>32.427908000000002</v>
@@ -3717,12 +3717,12 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B109">
         <v>64.963050999999993</v>
@@ -3734,12 +3734,12 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B110">
         <v>41.871940000000002</v>
@@ -3751,12 +3751,12 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B111">
         <v>49.214438999999999</v>
@@ -3768,12 +3768,12 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B112">
         <v>18.109580999999999</v>
@@ -3785,12 +3785,12 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B113">
         <v>30.585163999999999</v>
@@ -3802,12 +3802,12 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B114">
         <v>36.204824000000002</v>
@@ -3819,12 +3819,12 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B115">
         <v>-2.3559E-2</v>
@@ -3836,12 +3836,12 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B116">
         <v>41.20438</v>
@@ -3853,12 +3853,12 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B117">
         <v>12.565678999999999</v>
@@ -3870,12 +3870,12 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B118">
         <v>-3.3704170000000002</v>
@@ -3887,12 +3887,12 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B119">
         <v>-11.875000999999999</v>
@@ -3904,12 +3904,12 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B120">
         <v>17.357821999999999</v>
@@ -3921,12 +3921,12 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B121">
         <v>40.339852</v>
@@ -3938,12 +3938,12 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B122">
         <v>35.907756999999997</v>
@@ -3955,12 +3955,12 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B123">
         <v>29.31166</v>
@@ -3972,12 +3972,12 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B124">
         <v>19.513469000000001</v>
@@ -3989,12 +3989,12 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B125">
         <v>48.019573000000001</v>
@@ -4006,12 +4006,12 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B126">
         <v>19.856269999999999</v>
@@ -4023,12 +4023,12 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B127">
         <v>33.854720999999998</v>
@@ -4040,12 +4040,12 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B128">
         <v>13.909444000000001</v>
@@ -4057,12 +4057,12 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B129">
         <v>47.165999999999997</v>
@@ -4074,12 +4074,12 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B130">
         <v>7.8730539999999998</v>
@@ -4091,12 +4091,12 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B131">
         <v>6.4280549999999996</v>
@@ -4108,12 +4108,12 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B132">
         <v>-29.609988000000001</v>
@@ -4125,12 +4125,12 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B133">
         <v>55.169438</v>
@@ -4142,12 +4142,12 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B134">
         <v>49.815272999999998</v>
@@ -4159,12 +4159,12 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B135">
         <v>56.879635</v>
@@ -4176,12 +4176,12 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B136">
         <v>26.335100000000001</v>
@@ -4193,12 +4193,12 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B137">
         <v>31.791702000000001</v>
@@ -4210,12 +4210,12 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B138">
         <v>43.750298000000001</v>
@@ -4227,12 +4227,12 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B139">
         <v>47.411631</v>
@@ -4244,12 +4244,12 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B140">
         <v>42.708677999999999</v>
@@ -4261,12 +4261,12 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B141">
         <v>-18.766946999999998</v>
@@ -4278,12 +4278,12 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B142">
         <v>7.1314739999999999</v>
@@ -4295,12 +4295,12 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B143">
         <v>41.608635</v>
@@ -4312,12 +4312,12 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B144">
         <v>17.570692000000001</v>
@@ -4329,12 +4329,12 @@
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B145">
         <v>21.913965000000001</v>
@@ -4346,12 +4346,12 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B146">
         <v>46.862496</v>
@@ -4363,12 +4363,12 @@
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B147">
         <v>22.198744999999999</v>
@@ -4380,12 +4380,12 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B148">
         <v>17.330829999999999</v>
@@ -4397,12 +4397,12 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B149">
         <v>14.641527999999999</v>
@@ -4414,12 +4414,12 @@
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B150">
         <v>21.00789</v>
@@ -4431,12 +4431,12 @@
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B151">
         <v>16.742498000000001</v>
@@ -4448,12 +4448,12 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B152">
         <v>35.937496000000003</v>
@@ -4465,12 +4465,12 @@
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B153">
         <v>-20.348403999999999</v>
@@ -4482,12 +4482,12 @@
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B154">
         <v>3.2027779999999999</v>
@@ -4499,12 +4499,12 @@
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B155">
         <v>-13.254308</v>
@@ -4516,12 +4516,12 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B156">
         <v>23.634501</v>
@@ -4533,12 +4533,12 @@
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B157">
         <v>4.2104840000000001</v>
@@ -4550,12 +4550,12 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B158">
         <v>-18.665694999999999</v>
@@ -4567,12 +4567,12 @@
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B159">
         <v>-22.957640000000001</v>
@@ -4584,12 +4584,12 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B160">
         <v>-20.904305000000001</v>
@@ -4601,12 +4601,12 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B161">
         <v>17.607789</v>
@@ -4618,12 +4618,12 @@
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B162">
         <v>-29.040835000000001</v>
@@ -4635,12 +4635,12 @@
         <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163">
         <v>9.0819989999999997</v>
@@ -4652,12 +4652,12 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B164">
         <v>12.865416</v>
@@ -4669,12 +4669,12 @@
         <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B165">
         <v>52.132632999999998</v>
@@ -4686,12 +4686,12 @@
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B166">
         <v>60.472023999999998</v>
@@ -4703,12 +4703,12 @@
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B167">
         <v>28.394856999999998</v>
@@ -4720,12 +4720,12 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B168">
         <v>-0.52277799999999996</v>
@@ -4737,12 +4737,12 @@
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B169">
         <v>-19.054445000000001</v>
@@ -4754,12 +4754,12 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B170">
         <v>-40.900556999999999</v>
@@ -4771,12 +4771,12 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B171">
         <v>21.512582999999999</v>
@@ -4788,12 +4788,12 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B172">
         <v>8.5379810000000003</v>
@@ -4805,12 +4805,12 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B173">
         <v>-9.1899669999999993</v>
@@ -4822,12 +4822,12 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B174">
         <v>-17.679742000000001</v>
@@ -4839,12 +4839,12 @@
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B175">
         <v>-6.3149930000000003</v>
@@ -4856,12 +4856,12 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B176">
         <v>12.879721</v>
@@ -4873,12 +4873,12 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B177">
         <v>30.375321</v>
@@ -4890,12 +4890,12 @@
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B178">
         <v>51.919438</v>
@@ -4907,12 +4907,12 @@
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B179">
         <v>46.941935999999998</v>
@@ -4924,12 +4924,12 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B180">
         <v>-24.703614999999999</v>
@@ -4941,12 +4941,12 @@
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B181">
         <v>18.220832999999999</v>
@@ -4958,12 +4958,12 @@
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182">
         <v>31.952162000000001</v>
@@ -4975,12 +4975,12 @@
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183">
         <v>39.399872000000002</v>
@@ -4992,12 +4992,12 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B184">
         <v>7.5149800000000004</v>
@@ -5009,12 +5009,12 @@
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B185">
         <v>-23.442502999999999</v>
@@ -5026,12 +5026,12 @@
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B186">
         <v>25.354825999999999</v>
@@ -5043,12 +5043,12 @@
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B187">
         <v>-21.115141000000001</v>
@@ -5060,12 +5060,12 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B188">
         <v>45.943161000000003</v>
@@ -5077,12 +5077,12 @@
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B189">
         <v>44.016520999999997</v>
@@ -5094,12 +5094,12 @@
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B190">
         <v>61.524009999999997</v>
@@ -5111,12 +5111,12 @@
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191">
         <v>-1.9402779999999999</v>
@@ -5128,12 +5128,12 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B192">
         <v>23.885942</v>
@@ -5145,12 +5145,12 @@
         <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B193">
         <v>-9.6457099999999993</v>
@@ -5162,12 +5162,12 @@
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B194">
         <v>-4.6795739999999997</v>
@@ -5179,12 +5179,12 @@
         <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B195">
         <v>12.862807</v>
@@ -5196,12 +5196,12 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B196">
         <v>60.128160999999999</v>
@@ -5213,12 +5213,12 @@
         <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B197">
         <v>1.3520829999999999</v>
@@ -5230,12 +5230,12 @@
         <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B198">
         <v>-24.143474000000001</v>
@@ -5247,12 +5247,12 @@
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B199">
         <v>46.151240999999999</v>
@@ -5264,12 +5264,12 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B200">
         <v>77.553604000000007</v>
@@ -5281,12 +5281,12 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B201">
         <v>48.669026000000002</v>
@@ -5298,12 +5298,12 @@
         <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B202">
         <v>8.4605549999999994</v>
@@ -5315,12 +5315,12 @@
         <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B203">
         <v>43.942360000000001</v>
@@ -5332,12 +5332,12 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B204">
         <v>14.497401</v>
@@ -5349,12 +5349,12 @@
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B205">
         <v>5.1521489999999996</v>
@@ -5366,12 +5366,12 @@
         <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B206">
         <v>3.919305</v>
@@ -5383,12 +5383,12 @@
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B207">
         <v>0.18636</v>
@@ -5400,12 +5400,12 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B208">
         <v>13.794185000000001</v>
@@ -5417,12 +5417,12 @@
         <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B209">
         <v>34.802075000000002</v>
@@ -5434,12 +5434,12 @@
         <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B210">
         <v>-26.522503</v>
@@ -5451,12 +5451,12 @@
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B211">
         <v>21.694025</v>
@@ -5468,12 +5468,12 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B212">
         <v>15.454166000000001</v>
@@ -5485,12 +5485,12 @@
         <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B213">
         <v>-49.280366000000001</v>
@@ -5502,12 +5502,12 @@
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B214">
         <v>8.6195430000000002</v>
@@ -5519,12 +5519,12 @@
         <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B215">
         <v>15.870032</v>
@@ -5536,12 +5536,12 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B216">
         <v>38.861033999999997</v>
@@ -5553,12 +5553,12 @@
         <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B217">
         <v>-8.9673630000000006</v>
@@ -5570,12 +5570,12 @@
         <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B218">
         <v>-8.8742169999999998</v>
@@ -5587,12 +5587,12 @@
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B219">
         <v>38.969718999999998</v>
@@ -5604,12 +5604,12 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B220">
         <v>33.886916999999997</v>
@@ -5621,12 +5621,12 @@
         <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B221">
         <v>-21.178985999999998</v>
@@ -5638,12 +5638,12 @@
         <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B222">
         <v>38.963745000000003</v>
@@ -5655,12 +5655,12 @@
         <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B223">
         <v>10.691803</v>
@@ -5672,12 +5672,12 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B224">
         <v>-7.1095350000000002</v>
@@ -5689,12 +5689,12 @@
         <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B225">
         <v>23.69781</v>
@@ -5706,12 +5706,12 @@
         <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B226">
         <v>-6.3690280000000001</v>
@@ -5723,12 +5723,12 @@
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B227">
         <v>48.379432999999999</v>
@@ -5740,12 +5740,12 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B228">
         <v>1.3733329999999999</v>
@@ -5757,23 +5757,23 @@
         <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D229">
         <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B230">
         <v>37.090240000000001</v>
@@ -5785,12 +5785,12 @@
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B231">
         <v>-32.522779</v>
@@ -5802,12 +5802,12 @@
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B232">
         <v>41.377490999999999</v>
@@ -5819,12 +5819,12 @@
         <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B233">
         <v>41.902915999999998</v>
@@ -5836,12 +5836,12 @@
         <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B234">
         <v>12.984305000000001</v>
@@ -5853,12 +5853,12 @@
         <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B235">
         <v>6.4237500000000001</v>
@@ -5870,12 +5870,12 @@
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B236">
         <v>18.420694999999998</v>
@@ -5887,12 +5887,12 @@
         <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B237">
         <v>18.335764999999999</v>
@@ -5904,12 +5904,12 @@
         <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B238">
         <v>14.058324000000001</v>
@@ -5921,12 +5921,12 @@
         <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B239">
         <v>-15.376706</v>
@@ -5938,12 +5938,12 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B240">
         <v>-13.768751999999999</v>
@@ -5955,12 +5955,12 @@
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B241">
         <v>-13.759029</v>
@@ -5972,12 +5972,12 @@
         <v>5</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B242">
         <v>42.602635999999997</v>
@@ -5989,12 +5989,12 @@
         <v>5</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B243">
         <v>15.552727000000001</v>
@@ -6006,12 +6006,12 @@
         <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B244">
         <v>-12.827500000000001</v>
@@ -6023,12 +6023,12 @@
         <v>5</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B245">
         <v>-30.559481999999999</v>
@@ -6040,12 +6040,12 @@
         <v>5</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B246">
         <v>-13.133896999999999</v>
@@ -6057,12 +6057,12 @@
         <v>5</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B247">
         <v>-19.015438</v>
@@ -6074,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
